--- a/Spreadsheet Applications/External Data, Database Functions, and Side-by-Side Tables/Medical Center.xlsx
+++ b/Spreadsheet Applications/External Data, Database Functions, and Side-by-Side Tables/Medical Center.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/External Data^J Database Functions^J and Side-by-Side Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_B428F088CA4AECB13FE334C22849DD2086AB63AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3C8B1E-C38F-4F70-B938-0FF3B840727E}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_B428F088CA4AECB13FE334C22849DD2086AB63AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{911C382E-2723-4585-89C4-986CB8A7F6A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="691" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nurse Information" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -902,12 +902,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,7 +911,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -972,6 +971,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1341,7 +1344,7 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1359,17 +1362,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1401,582 +1404,582 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" t="s">
         <v>85</v>
       </c>
       <c r="H3">
         <v>32790</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" t="s">
         <v>85</v>
       </c>
       <c r="H4">
         <v>33010</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" t="s">
         <v>85</v>
       </c>
       <c r="H5">
         <v>33065</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" t="s">
         <v>85</v>
       </c>
       <c r="H6">
         <v>33077</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" t="s">
         <v>85</v>
       </c>
       <c r="H7">
         <v>32790</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" t="s">
         <v>85</v>
       </c>
       <c r="H8">
         <v>32790</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" t="s">
         <v>85</v>
       </c>
       <c r="H9">
         <v>33174</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" t="s">
         <v>85</v>
       </c>
       <c r="H10">
         <v>33077</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" t="s">
         <v>85</v>
       </c>
       <c r="H11">
         <v>33150</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" t="s">
         <v>85</v>
       </c>
       <c r="H12">
         <v>33145</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" t="s">
         <v>85</v>
       </c>
       <c r="H13">
         <v>33075</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" t="s">
         <v>85</v>
       </c>
       <c r="H14">
         <v>33143</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" t="s">
         <v>85</v>
       </c>
       <c r="H15">
         <v>33145</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" t="s">
         <v>85</v>
       </c>
       <c r="H16">
         <v>33143</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" t="s">
         <v>85</v>
       </c>
       <c r="H17">
         <v>33013</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" t="s">
         <v>85</v>
       </c>
       <c r="H18">
         <v>33013</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" t="s">
         <v>85</v>
       </c>
       <c r="H19">
         <v>33174</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" t="s">
         <v>85</v>
       </c>
       <c r="H20">
         <v>33150</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" t="s">
         <v>85</v>
       </c>
       <c r="H21">
         <v>33143</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" t="s">
         <v>85</v>
       </c>
       <c r="H22">
         <v>33065</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1987,6 +1990,9 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1997,12 +2003,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,16 +2017,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2031,7 +2036,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
@@ -2039,7 +2044,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
@@ -2052,12 +2057,12 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
@@ -2065,7 +2070,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
@@ -2073,12 +2078,12 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
@@ -2086,7 +2091,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B12" t="s">
@@ -2099,7 +2104,10 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2107,11 +2115,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2124,12 +2131,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2149,10 +2156,10 @@
       <c r="A3">
         <v>323</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" t="s">
         <v>190</v>
       </c>
       <c r="D3">
@@ -2163,10 +2170,10 @@
       <c r="A4">
         <v>346</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
         <v>192</v>
       </c>
       <c r="D4">
@@ -2177,10 +2184,10 @@
       <c r="A5">
         <v>399</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" t="s">
         <v>194</v>
       </c>
       <c r="D5">
@@ -2191,10 +2198,10 @@
       <c r="A6">
         <v>425</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" t="s">
         <v>194</v>
       </c>
       <c r="D6">
@@ -2205,10 +2212,10 @@
       <c r="A7">
         <v>444</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>197</v>
       </c>
       <c r="D7">
@@ -2219,10 +2226,10 @@
       <c r="A8">
         <v>449</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
         <v>199</v>
       </c>
       <c r="D8">
@@ -2233,10 +2240,10 @@
       <c r="A9">
         <v>519</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
         <v>190</v>
       </c>
       <c r="D9">
@@ -2247,10 +2254,10 @@
       <c r="A10">
         <v>525</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" t="s">
         <v>192</v>
       </c>
       <c r="D10">
@@ -2263,7 +2270,10 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2274,12 +2284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,19 +2307,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2374,14 +2383,14 @@
         <v>FL</v>
       </c>
       <c r="I3" t="str">
-        <f>RIGHT(F3,5)</f>
+        <f t="shared" ref="I3:I11" si="0">RIGHT(F3,5)</f>
         <v>33145</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="K3" t="str">
-        <f>_xlfn.CONCAT(B3," ",C3)</f>
+        <f t="shared" ref="K3:K11" si="1">_xlfn.CONCAT(B3," ",C3)</f>
         <v>Margaret Fitzpatrick</v>
       </c>
     </row>
@@ -2408,18 +2417,18 @@
         <v>99</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H11" si="0">UPPER("Fl")</f>
+        <f t="shared" ref="H4:H11" si="2">UPPER("Fl")</f>
         <v>FL</v>
       </c>
       <c r="I4" t="str">
-        <f>RIGHT(F4,5)</f>
+        <f t="shared" si="0"/>
         <v>33075</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
       </c>
       <c r="K4" t="str">
-        <f>_xlfn.CONCAT(B4," ",C4)</f>
+        <f t="shared" si="1"/>
         <v>Emily Rhoades</v>
       </c>
     </row>
@@ -2446,18 +2455,18 @@
         <v>92</v>
       </c>
       <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>FL</v>
-      </c>
-      <c r="I5" t="str">
-        <f>RIGHT(F5,5)</f>
         <v>33013</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
       </c>
       <c r="K5" t="str">
-        <f>_xlfn.CONCAT(B5," ",C5)</f>
+        <f t="shared" si="1"/>
         <v>Maria Flores</v>
       </c>
     </row>
@@ -2484,18 +2493,18 @@
         <v>84</v>
       </c>
       <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>FL</v>
-      </c>
-      <c r="I6" t="str">
-        <f>RIGHT(F6,5)</f>
         <v>32790</v>
       </c>
       <c r="J6" t="s">
         <v>39</v>
       </c>
       <c r="K6" t="str">
-        <f>_xlfn.CONCAT(B6," ",C6)</f>
+        <f t="shared" si="1"/>
         <v>Joan Curtis</v>
       </c>
     </row>
@@ -2522,18 +2531,18 @@
         <v>121</v>
       </c>
       <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>FL</v>
-      </c>
-      <c r="I7" t="str">
-        <f>RIGHT(F7,5)</f>
         <v>33143</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="str">
-        <f>_xlfn.CONCAT(B7," ",C7)</f>
+        <f t="shared" si="1"/>
         <v>Elena Montoya</v>
       </c>
     </row>
@@ -2560,18 +2569,18 @@
         <v>121</v>
       </c>
       <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>FL</v>
-      </c>
-      <c r="I8" t="str">
-        <f>RIGHT(F8,5)</f>
         <v>33174</v>
       </c>
       <c r="J8" t="s">
         <v>206</v>
       </c>
       <c r="K8" t="str">
-        <f>_xlfn.CONCAT(B8," ",C8)</f>
+        <f t="shared" si="1"/>
         <v>Jerry Chung</v>
       </c>
     </row>
@@ -2598,18 +2607,18 @@
         <v>99</v>
       </c>
       <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>FL</v>
-      </c>
-      <c r="I9" t="str">
-        <f>RIGHT(F9,5)</f>
         <v>33077</v>
       </c>
       <c r="J9" t="s">
         <v>210</v>
       </c>
       <c r="K9" t="str">
-        <f>_xlfn.CONCAT(B9," ",C9)</f>
+        <f t="shared" si="1"/>
         <v>Yvonne Dubois</v>
       </c>
     </row>
@@ -2636,18 +2645,18 @@
         <v>92</v>
       </c>
       <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>FL</v>
-      </c>
-      <c r="I10" t="str">
-        <f>RIGHT(F10,5)</f>
         <v>33010</v>
       </c>
       <c r="J10" t="s">
         <v>215</v>
       </c>
       <c r="K10" t="str">
-        <f>_xlfn.CONCAT(B10," ",C10)</f>
+        <f t="shared" si="1"/>
         <v>Joseph Ortega</v>
       </c>
     </row>
@@ -2674,18 +2683,18 @@
         <v>121</v>
       </c>
       <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>FL</v>
-      </c>
-      <c r="I11" t="str">
-        <f>RIGHT(F11,5)</f>
         <v>33174</v>
       </c>
       <c r="J11" t="s">
         <v>206</v>
       </c>
       <c r="K11" t="str">
-        <f>_xlfn.CONCAT(B11," ",C11)</f>
+        <f t="shared" si="1"/>
         <v>Jerry Chung</v>
       </c>
     </row>
@@ -2695,7 +2704,10 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2703,12 +2715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,24 +2733,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -3335,7 +3346,10 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
